--- a/biology/Botanique/Oreocereus/Oreocereus.xlsx
+++ b/biology/Botanique/Oreocereus/Oreocereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oreocereus est un genre de la famille des cactus.
 Son nom vient du grec ancien "Oros" signifiant montagne et du latin "Cereus" siginifiant cierge)
 Ce sont des plantes colonnaires souvent ramifiées à partir de la base et pouvant atteindre trois mètres de haut. Les plantes présentent de fortes épines et des soies laineuses blanches. Fleurs diurnes tubulaires orange ou rouges.
 Oreocereus est originaire des régions des Andes à plus de 3 000 mètres d'altitude. Plus particulièrement du sud du Chili, et de la Bolivie, du nord du Chili et de l'Argentine.
-Alwin Berger a identifié Oreocereus comme un sous-genre de Cereus en 1905[1]. Vincenzo Riccobono l'a élevé au rang de genre à part entière en 1909 au rang de genre[2].
+Alwin Berger a identifié Oreocereus comme un sous-genre de Cereus en 1905. Vincenzo Riccobono l'a élevé au rang de genre à part entière en 1909 au rang de genre.
 Oreocereus peut supporter des gelées de courte durée, à condition d'être totalement au sec. Demande plusieurs années pour fleurir.
 </t>
         </is>
@@ -518,8 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces
-Oreocereus celsianus ou Oreocereus neocelsianus, parfois appelé "le vieil homme des Andes" à cause de sa chevelure blanche
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Oreocereus celsianus ou Oreocereus neocelsianus, parfois appelé "le vieil homme des Andes" à cause de sa chevelure blanche
 Oreocereus doelzianus
 Oreocereus fossulatus
 Oreocereus hendriksenianus
@@ -527,9 +544,43 @@
 Oreocereus maximus
 Oreocereus ritteri
 Oreocereus trollii
-Oreocereus variicolor
-Synonymes
-Les genres suivants sont considérées comme synonymes de Oreocereus:
+Oreocereus variicolor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oreocereus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oreocereus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les genres suivants sont considérées comme synonymes de Oreocereus:
 Arequipa Britton &amp; Rose
 Arequipiopsis Kreuz. &amp; Buining
 Morawetzia Backeb.
